--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476598.060668667</v>
+        <v>1494972.75013479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>349.8553966500264</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>177.4339484441091</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.7664547002294</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>150.5031652935612</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>326.5314653000245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.836482428420782</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>223.8275496396402</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>364.1816112770616</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.4249867772594</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.710489970433045</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>200.9966871393563</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.61524188852272</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>209.1695767361646</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>60.54139430664212</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>88.83679808884825</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>256.111763886877</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>66.90445977359168</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>13.60014786677655</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>76.9442662872342</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>224.8952567231534</v>
+        <v>57.64843562452468</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>38.02409668112636</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5920542696383</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>16.27740963505717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.045572227204</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>163.352116301783</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>147.6461444058331</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.07409869758706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>63.1779444490595</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2068.082036285343</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1737.019148941773</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>227.6464301928558</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177207</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646013</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.4646400193117</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4646400193117</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>102.4646400193117</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4646400193117</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4646400193117</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
         <v>99.5995062532301</v>
@@ -4723,52 +4723,52 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628418</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4646400193117</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1744.23243129246</v>
       </c>
       <c r="C8" t="n">
         <v>1376.372217881286</v>
@@ -4787,7 +4787,7 @@
         <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545184</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545184</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>2130.832271356581</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>726.401216559532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>578.2545579937159</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>578.2545579937159</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>578.2545579937159</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>578.2545579937159</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>578.2545579937159</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>578.2545579937159</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>578.2545579937159</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>578.2545579937159</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>485.5200852635886</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300439</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>752.8533410811858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>498.168852875299</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,19 +5431,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>355.1265526241503</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>355.1265526241503</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>186.951230943971</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.217519157017</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>985.5330309511296</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>696.115860914169</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,10 +5771,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372323</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556163</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.69918977486</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,25 +6224,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4347.940519017357</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>3967.004796525181</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>3967.004796525181</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6409,25 +6409,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017357</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.940519017357</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="X28" t="n">
-        <v>4347.940519017357</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="Y28" t="n">
-        <v>4347.940519017357</v>
+        <v>4117.121435937516</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C31" t="n">
         <v>3459.155393916675</v>
@@ -6631,40 +6631,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U31" t="n">
-        <v>4633.687647031309</v>
+        <v>4802.623829959216</v>
       </c>
       <c r="V31" t="n">
-        <v>4379.003158825422</v>
+        <v>4547.939341753329</v>
       </c>
       <c r="W31" t="n">
-        <v>4089.585988788462</v>
+        <v>4258.522171716369</v>
       </c>
       <c r="X31" t="n">
-        <v>3861.596437890445</v>
+        <v>4030.532620818351</v>
       </c>
       <c r="Y31" t="n">
-        <v>3640.803858746915</v>
+        <v>3809.740041674821</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,7 +6722,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1460.508092092118</v>
       </c>
       <c r="S34" t="n">
-        <v>1260.980506241305</v>
+        <v>1460.508092092118</v>
       </c>
       <c r="T34" t="n">
-        <v>1037.195091030811</v>
+        <v>1460.508092092118</v>
       </c>
       <c r="U34" t="n">
-        <v>748.0664522443694</v>
+        <v>1171.379453305676</v>
       </c>
       <c r="V34" t="n">
-        <v>493.3819640384826</v>
+        <v>1171.379453305676</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>881.9622832687159</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>653.9727323706985</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>2946.774526574668</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3254.09465985463</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4350.644823833802</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919602</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507267</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>4571.437402977332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y37" t="n">
-        <v>4350.644823833802</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,7 +7166,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,7 +7175,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W40" t="n">
-        <v>1164.055751909234</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X40" t="n">
-        <v>1164.055751909234</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1164.055751909234</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2507.25999687553</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.3642008327093</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>407.4280179048025</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>257.3113784924667</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7837,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>758.0126656629491</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.0126656629491</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516231</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231167</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776746</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498448</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.47535963978233</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2167382934146</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>77.06777566241271</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>225.9816040299489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>60.07703027868787</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>30.12558851170036</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.0677756624132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>153.6466732318513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>68.47678173569705</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24892,7 +24892,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>61.34209567542396</v>
+        <v>228.5889167740527</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>71.94025572266645</v>
       </c>
       <c r="S34" t="n">
-        <v>72.32875571396494</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>150.9694114635707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.78640795473328</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>88.78552702204499</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>19.60067669279474</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.35986394898211</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4067089030353</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="O2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357220.9938446527</v>
+        <v>-354692.6726812102</v>
       </c>
       <c r="C6" t="n">
-        <v>232746.885369892</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>232746.8853698919</v>
+        <v>235275.2065333343</v>
       </c>
       <c r="E6" t="n">
-        <v>-179250.8555306621</v>
+        <v>-177216.0362926641</v>
       </c>
       <c r="F6" t="n">
-        <v>345909.1809462344</v>
+        <v>347944.0001842313</v>
       </c>
       <c r="G6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="H6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="I6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="J6" t="n">
-        <v>169485.9617536416</v>
+        <v>171520.7809916386</v>
       </c>
       <c r="K6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="L6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="M6" t="n">
-        <v>211108.1657123972</v>
+        <v>213142.9849503945</v>
       </c>
       <c r="N6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="O6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="P6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842315</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>15.41749512098113</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>73.79021906418018</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>8.19916709210878</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>13.45145126154864</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>214.7697264774463</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>59.70647335602911</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>164.4733198306301</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>28.31009368418785</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>1.091280493945931</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.8129518787943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.41225998448128</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>17.58796621273848</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279169</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110558</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.666887533699</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1494972.75013479</v>
+        <v>1570502.419799594</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>337.5116855040412</v>
       </c>
       <c r="C2" t="n">
-        <v>349.8553966500264</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.2137407186092</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>150.5031652935612</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>114.1239585223487</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.8275496396402</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>364.1816112770616</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>12.92673310808047</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.938553216412243</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.9966871393563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.61524188852272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>88.83679808884825</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>66.90445977359168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>135.0282639333627</v>
       </c>
       <c r="F28" t="n">
-        <v>76.9442662872342</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>140.8661662454936</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.02409668112636</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>242.0574934951308</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>95.02525064967719</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.352116301783</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>147.6461444058331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,7 +3915,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>147.4019814764075</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>211.5619001782852</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.1779444490595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1563.476704221264</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,31 +4494,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
         <v>564.1527310008552</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1873.842488573869</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2308.209008740628</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>502.0405502269999</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>502.0405502269999</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>502.0405502269999</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.23243129246</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2684.091784848444</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2684.091784848444</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2684.091784848444</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2684.091784848444</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2353.028897504873</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4890,40 +4892,40 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>726.1708496444019</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635886</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020477</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300439</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5236,13 +5238,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.499100520942</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5343,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>355.1265526241503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>355.1265526241503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>186.951230943971</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065435</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5944,13 +5946,13 @@
         <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>3578.842145943456</v>
       </c>
     </row>
     <row r="26">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937516</v>
+        <v>552.6620995918039</v>
       </c>
       <c r="C28" t="n">
-        <v>4117.121435937516</v>
+        <v>383.725916663897</v>
       </c>
       <c r="D28" t="n">
-        <v>3967.004796525181</v>
+        <v>233.6092772515613</v>
       </c>
       <c r="E28" t="n">
-        <v>3967.004796525181</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937516</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937516</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844582</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4802.623829959216</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4547.939341753329</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>4258.522171716369</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X31" t="n">
-        <v>4030.532620818351</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.740041674821</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.9727323706985</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="C34" t="n">
-        <v>653.9727323706985</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706985</v>
+        <v>4175.957404868841</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>4028.044311286448</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>3881.154363788537</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3712.979042108358</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1460.508092092118</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1460.508092092118</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1460.508092092118</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1171.379453305676</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.379453305676</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W34" t="n">
-        <v>881.9622832687159</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="X34" t="n">
-        <v>653.9727323706985</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="Y34" t="n">
-        <v>653.9727323706985</v>
+        <v>4326.074044281177</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2946.774526574668</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3254.09465985463</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1254.413751875952</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>4168.996359003563</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>4000.060176075656</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>3849.943536663321</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3702.030443080927</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3555.140495583017</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V40" t="n">
-        <v>1333.914132879334</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W40" t="n">
-        <v>1044.496962842373</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="X40" t="n">
-        <v>816.5074119443557</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7148328008255</v>
+        <v>4350.644823833803</v>
       </c>
     </row>
     <row r="41">
@@ -7421,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1350.025380177693</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1350.025380177693</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7658,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
         <v>415.8104215925219</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231167</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498448</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2167382934146</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>60.07703027868787</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>52.3998233988052</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>185.2331835502363</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542497</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>11.4056987132065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.47678173569705</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>228.5889167740527</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>8.047662122042482</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.94025572266645</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>44.17985890344659</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>71.46831781370039</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25606,13 +25608,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>88.78552702204499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>19.60067669279474</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>50.51882850719574</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>9.985660880104064</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.4067089030353</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="14">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
@@ -26347,7 +26349,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852505</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26442,19 +26444,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26473,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26503,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26525,34 +26527,34 @@
         <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333343</v>
+        <v>235275.2065333341</v>
       </c>
       <c r="E6" t="n">
-        <v>-177216.0362926641</v>
+        <v>-177216.0362926645</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842313</v>
+        <v>347944.0001842312</v>
       </c>
       <c r="G6" t="n">
         <v>347944.0001842314</v>
       </c>
       <c r="H6" t="n">
-        <v>347944.0001842315</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="I6" t="n">
         <v>347944.0001842316</v>
       </c>
       <c r="J6" t="n">
-        <v>171520.7809916386</v>
+        <v>171520.7809916385</v>
       </c>
       <c r="K6" t="n">
-        <v>347944.0001842315</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="L6" t="n">
         <v>347944.0001842316</v>
       </c>
       <c r="M6" t="n">
-        <v>213142.9849503945</v>
+        <v>213142.9849503944</v>
       </c>
       <c r="N6" t="n">
         <v>347944.0001842314</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>45.22215615943935</v>
       </c>
       <c r="C2" t="n">
-        <v>15.41749512098113</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>13.45145126154864</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>214.7697264774463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>213.6282999477862</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>48.34766866953092</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.31009368418785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.091280493945931</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>41.55166946673122</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>27.18419673850205</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,10 +28064,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.58796621273848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110558</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>425.975359705869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,16 +37399,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570502.419799594</v>
+        <v>1563485.404907883</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>337.5116855040412</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>23.78823718901948</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>114.1239585223487</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>118.96213358952</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>12.92673310808047</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.50046002839137</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.938553216412243</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>132.7115457768264</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.5645290049876</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.0282639333627</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.8661662454936</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>242.0574934951308</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>97.24018360678566</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>95.02525064967719</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.4019814764075</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>256.6289271138778</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>211.5619001782852</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.209008740628</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.440353470514</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.974595209434</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>513.8405610245972</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>513.8405610245972</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696253</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2684.091784848444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2684.091784848444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2684.091784848444</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2684.091784848444</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.028897504873</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.260242234759</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>726.1708496444019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>726.1708496444019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>726.1708496444019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>498.8626623130036</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>498.8626623130036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>381.3857973138604</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.770281663976</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1240.850271579528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,31 +5737,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5934,22 +5934,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>773.166147484815</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>604.2299645569082</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>454.1133251445724</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>306.2002315621793</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>159.3102840642689</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6229,22 +6229,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.6620995918039</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>383.725916663897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>233.6092772515613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655738</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655738</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.3105644220436</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6472,22 +6472,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4175.957404868841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4028.044311286448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3881.154363788537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3712.979042108358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>4326.074044281177</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6946,40 +6946,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1254.413751875952</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>999.7292636700652</v>
+        <v>1111.565224087839</v>
       </c>
       <c r="W37" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X37" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y37" t="n">
-        <v>710.3120936331045</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7177,16 +7177,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4168.996359003563</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>4000.060176075656</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3849.943536663321</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3702.030443080927</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3555.140495583017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014293</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014293</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.437402977333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>4571.437402977333</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>4350.644823833803</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7426,31 +7426,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.025380177693</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.025380177693</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1060.896741391251</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>1060.896741391251</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>1060.896741391251</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>1060.896741391251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1285.217381488927</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1285.217381488927</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1285.217381488927</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>1285.217381488927</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>1285.217381488927</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>1064.424802345397</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>158.8724419039333</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34.53527532180141</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.3998233988052</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542497</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>105.0213077854343</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>11.4056987132065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>8.047662122042482</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>44.17985890344659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>154.8974597170424</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>71.46831781370039</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,16 +25605,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>50.51882850719574</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>29.89407122271319</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>9.985660880104064</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644286</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852502</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
@@ -26340,22 +26340,22 @@
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26438,22 +26438,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812102</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
         <v>235275.2065333342</v>
@@ -26530,40 +26530,40 @@
         <v>235275.2065333341</v>
       </c>
       <c r="E6" t="n">
-        <v>-177216.0362926645</v>
+        <v>-178190.6275523865</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842312</v>
+        <v>346969.4089245099</v>
       </c>
       <c r="G6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="H6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="I6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245099</v>
       </c>
       <c r="J6" t="n">
-        <v>171520.7809916385</v>
+        <v>170546.189731917</v>
       </c>
       <c r="K6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245099</v>
       </c>
       <c r="L6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245099</v>
       </c>
       <c r="M6" t="n">
-        <v>213142.9849503944</v>
+        <v>212168.3936906728</v>
       </c>
       <c r="N6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245094</v>
       </c>
       <c r="O6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="P6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.4089245095</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.22215615943935</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>358.1421328832423</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>123.9453835684545</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>213.6282999477862</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2908737214062</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>48.34766866953092</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.55166946673122</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>216.7237074798979</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.18419673850205</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563485.404907883</v>
+        <v>1568424.667756914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.78823718901948</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>94.29856281742539</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4237682275164</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>92.17610396719346</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>219.3905146654038</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>34.50046002839137</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>132.7115457768264</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996884</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.97351314171655</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>148.7416974947224</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>61.47226067794325</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>195.5840668773374</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>161.4562518681535</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>31.13654107019678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>109.3794458909839</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>34.71361063512823</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.24018360678566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>43.59416523277802</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.30197918502502</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>256.6289271138778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>211.2541671901481</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249362</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>906.9212171249362</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477204</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>400.6823320653273</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>253.7923845674169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>160.9735616062114</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>147.0501575448023</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>147.0501575448023</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696253</v>
+        <v>668.283315637917</v>
       </c>
       <c r="E8" t="n">
-        <v>478.852290671381</v>
+        <v>282.4950630396727</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>275.5495622904693</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381.3857973138604</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W13" t="n">
-        <v>609.3753482118777</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>381.3857973138604</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y13" t="n">
-        <v>381.3857973138604</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>616.8574922980933</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>466.7408528857576</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.8277593033645</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>171.9378118054541</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>785.7936752260002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C19" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="20">
@@ -5749,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.2642714241473</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.3511778417542</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.4612303438438</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>773.166147484815</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>604.2299645569082</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>159.3102840642689</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.356607045441</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1012.227968258999</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>757.5434800531123</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150548</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.8146123150548</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1335.829147458757</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1335.829147458757</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W28" t="n">
-        <v>531.109187020113</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>429.5893005770491</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>282.6993530791387</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>282.6993530791387</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>132.281344627082</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,43 +6946,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.148054050878</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C37" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1111.565224087839</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>822.148054050878</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>822.148054050878</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.148054050878</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,31 +7189,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>472.0965898562135</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W46" t="n">
-        <v>318.0096706038159</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>253.7371603504735</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711621</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.53527532180141</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>14.45548819888899</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>92.52005532166103</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429840981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>26.93116351641913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>17.75187096865523</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.0213077854343</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>25.96349418105183</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>36.46455811544976</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>194.5731143188404</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>39.23602712722843</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>75.70563482914378</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>154.8974597170424</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.9904881193168</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>142.9448419136028</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.89407122271319</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>42.08221638637283</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>75.26883114644286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,19 +26438,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812104</v>
+        <v>-354692.6726812102</v>
       </c>
       <c r="C6" t="n">
         <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333341</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="E6" t="n">
-        <v>-178190.6275523865</v>
+        <v>-177313.4954186373</v>
       </c>
       <c r="F6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="G6" t="n">
-        <v>346969.4089245098</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="H6" t="n">
-        <v>346969.4089245098</v>
+        <v>347846.541058259</v>
       </c>
       <c r="I6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582591</v>
       </c>
       <c r="J6" t="n">
-        <v>170546.189731917</v>
+        <v>171423.3218656664</v>
       </c>
       <c r="K6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582592</v>
       </c>
       <c r="L6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582596</v>
       </c>
       <c r="M6" t="n">
-        <v>212168.3936906728</v>
+        <v>213045.5258244221</v>
       </c>
       <c r="N6" t="n">
-        <v>346969.4089245094</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="O6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582594</v>
       </c>
       <c r="P6" t="n">
-        <v>346969.4089245095</v>
+        <v>347846.5410582593</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>358.1421328832423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>275.4325378610437</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>14.65885272800598</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3604017932786</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>59.75521227766779</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.2908737214062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>194.3936553553912</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>216.7237074798979</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>586.9317337484864</v>
+        <v>621.6037559756874</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
